--- a/EdNet結果.xlsx
+++ b/EdNet結果.xlsx
@@ -8,13 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nagairyousuke/Documents/kashima_lab/KnowledgeTracing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A73AFF-F223-8D45-8427-2C0F909BC557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA56C7F1-6DF9-4848-B19F-23447357C98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="1300" windowWidth="27900" windowHeight="16940" xr2:uid="{F765A3C0-62EA-584D-AFDE-CDA2547ECD7E}"/>
+    <workbookView xWindow="1860" yWindow="2700" windowWidth="27900" windowHeight="16940" xr2:uid="{F765A3C0-62EA-584D-AFDE-CDA2547ECD7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$B$3:$E$3</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$B$4:$E$4</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$5:$E$5</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$2:$E$5</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$C$2:$C$5</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$2:$E$5</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$B$2:$B$5</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -129,6 +144,768 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+                <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>TopK</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{05C1753F-5227-584E-B874-5C05AC67B57A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>提案モデル</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-D42A-0444-8CDC-2061C95221BF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>上限モデル</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000002-D42A-0444-8CDC-2061C95221BF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>難易度ベース</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000003-D42A-0444-8CDC-2061C95221BF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>ランダム</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>179528</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>938039</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>5676</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="グラフ 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AC145F-04A0-2EF5-28DA-3E11934077EE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4963195" y="59267"/>
+              <a:ext cx="4585444" cy="2740409"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
+                <a:t>この図は、お使いのバージョンの Excel では利用できません。
+この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB5B77D5-5260-C94F-9600-2EBF61CBC024}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -507,8 +1284,43 @@
         <v>0.55219047619047601</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.65221088435374097</v>
+      </c>
+      <c r="C4">
+        <v>0.63092808551992197</v>
+      </c>
+      <c r="D4">
+        <v>0.64725461613216695</v>
+      </c>
+      <c r="E4">
+        <v>0.47563168124392602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.67463556851311901</v>
+      </c>
+      <c r="C5">
+        <v>0.67716229348882395</v>
+      </c>
+      <c r="D5">
+        <v>0.71749271137026205</v>
+      </c>
+      <c r="E5">
+        <v>0.46598639455782298</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>